--- a/info/pic.xlsx
+++ b/info/pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AF7C63-50F2-44E8-AD6B-6F98EAEE7F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F99AFD-6BF3-E044-8D36-723FDBD4E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="487" yWindow="1073" windowWidth="11641" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4280" yWindow="1080" windowWidth="19500" windowHeight="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="343">
   <si>
     <t>baseline</t>
   </si>
@@ -1065,31 +1065,6 @@
   </si>
   <si>
     <t>target4_g</t>
-  </si>
-  <si>
-    <t>fixation</t>
-  </si>
-  <si>
-    <t>blank1</t>
-  </si>
-  <si>
-    <t>fixation2</t>
-  </si>
-  <si>
-    <t>blank1_2</t>
-  </si>
-  <si>
-    <t>fixation_g</t>
-  </si>
-  <si>
-    <t>blank1_g</t>
-  </si>
-  <si>
-    <t>blank1_g_2</t>
-  </si>
-  <si>
-    <t>blank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1099,7 +1074,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,20 +1401,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.46484375" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
@@ -1453,7 +1428,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1466,14 +1441,10 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1486,14 +1457,10 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1506,14 +1473,10 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1526,14 +1489,10 @@
       <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1547,7 +1506,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1560,14 +1519,10 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1580,14 +1535,10 @@
       <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1600,14 +1551,10 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1621,7 +1568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1635,7 +1582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1649,7 +1596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1705,7 +1652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1719,7 +1666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1733,7 +1680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1747,7 +1694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1722,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1845,7 +1792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1859,7 +1806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1873,7 +1820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +1834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +1848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1915,7 +1862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1929,7 +1876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1957,7 +1904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1971,7 +1918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +1932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1999,7 +1946,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +1960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -2027,7 +1974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -2041,7 +1988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2069,7 +2016,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2083,7 +2030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2097,7 +2044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -2111,7 +2058,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2125,7 +2072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2139,7 +2086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2153,7 +2100,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2156,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2223,7 +2170,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2237,7 +2184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2251,7 +2198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -2265,7 +2212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2279,7 +2226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2293,7 +2240,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2307,7 +2254,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2268,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2335,7 +2282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -2349,7 +2296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2310,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2338,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2405,7 +2352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2419,7 +2366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2475,7 +2422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2489,7 +2436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2503,7 +2450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2517,7 +2464,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2478,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -2545,7 +2492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2506,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2573,7 +2520,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -2587,7 +2534,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -2615,7 +2562,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2576,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -2643,7 +2590,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -2657,7 +2604,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -2671,7 +2618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2632,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -2699,7 +2646,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -2713,7 +2660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -2727,7 +2674,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -2755,7 +2702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2716,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -2783,7 +2730,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -2797,7 +2744,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -2811,7 +2758,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2772,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -2839,7 +2786,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2800,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -2867,7 +2814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -2881,7 +2828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -2895,7 +2842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -2909,7 +2856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -2923,7 +2870,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -2937,7 +2884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -2951,7 +2898,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +2912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -2979,7 +2926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -2993,7 +2940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +2954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -3021,7 +2968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -3035,7 +2982,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -3049,7 +2996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -3063,7 +3010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -3077,7 +3024,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +3038,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -3105,7 +3052,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3066,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -3133,7 +3080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -3147,7 +3094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -3161,7 +3108,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -3175,7 +3122,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -3189,7 +3136,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -3203,7 +3150,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
@@ -3217,7 +3164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3178,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -3245,7 +3192,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -3260,7 +3207,7 @@
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -3275,7 +3222,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -3290,7 +3237,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -3305,7 +3252,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -3320,7 +3267,7 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -3334,7 +3281,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -3348,7 +3295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -3362,7 +3309,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -3376,7 +3323,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -3390,7 +3337,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:5">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -3404,7 +3351,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:5">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -3418,7 +3365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:5">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:5">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -3446,7 +3393,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:5">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -3460,7 +3407,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:5">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -3474,7 +3421,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:5">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -3488,7 +3435,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:5">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -3502,7 +3449,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -3516,7 +3463,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
@@ -3530,7 +3477,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -3544,7 +3491,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
@@ -3558,7 +3505,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
@@ -3572,7 +3519,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
@@ -3586,7 +3533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3547,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
@@ -3614,7 +3561,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3575,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
@@ -3642,7 +3589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
@@ -3656,7 +3603,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3617,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -3684,7 +3631,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
@@ -3698,7 +3645,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
@@ -3712,7 +3659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
@@ -3726,7 +3673,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
@@ -3740,7 +3687,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
@@ -3754,7 +3701,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -3768,7 +3715,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3729,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -3796,7 +3743,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
@@ -3810,7 +3757,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
@@ -3824,7 +3771,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
@@ -3838,7 +3785,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
@@ -3852,7 +3799,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -3866,7 +3813,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
@@ -3880,7 +3827,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3894,7 +3841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
@@ -3908,7 +3855,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +3869,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -3936,7 +3883,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3897,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:8">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -3964,7 +3911,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:8">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -3978,7 +3925,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:8">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -3992,7 +3939,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:8">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
@@ -4006,7 +3953,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:8">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +3967,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:8">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
@@ -4034,7 +3981,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -4048,7 +3995,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:8">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
@@ -4062,7 +4009,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:8">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
@@ -4076,7 +4023,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -4090,7 +4037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:8">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -4108,7 +4055,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:8">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
@@ -4126,7 +4073,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:8">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
@@ -4144,7 +4091,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:8">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
@@ -4162,7 +4109,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:8">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4127,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:8">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -4194,7 +4141,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
@@ -4208,7 +4155,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
@@ -4222,7 +4169,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
@@ -4236,7 +4183,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
@@ -4250,7 +4197,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -4264,7 +4211,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -4278,7 +4225,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -4292,7 +4239,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
@@ -4306,7 +4253,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +4267,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4281,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
@@ -4348,7 +4295,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
@@ -4362,7 +4309,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
@@ -4376,7 +4323,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
@@ -4390,7 +4337,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
@@ -4404,7 +4351,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:4">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4365,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:4">
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
@@ -4432,7 +4379,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
         <v>5</v>
       </c>
@@ -4446,7 +4393,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>5</v>
       </c>
@@ -4460,7 +4407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -4474,7 +4421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
         <v>5</v>
       </c>
@@ -4488,7 +4435,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -4502,7 +4449,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
@@ -4516,7 +4463,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
@@ -4530,7 +4477,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
         <v>5</v>
       </c>
@@ -4544,7 +4491,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
@@ -4558,7 +4505,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
         <v>5</v>
       </c>
@@ -4572,7 +4519,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
         <v>5</v>
       </c>
@@ -4586,7 +4533,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -4600,7 +4547,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
         <v>5</v>
       </c>
@@ -4614,7 +4561,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -4628,7 +4575,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4589,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:7">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4603,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:7">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
@@ -4670,7 +4617,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:7">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
@@ -4687,7 +4634,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:7">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -4704,7 +4651,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:7">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -4721,7 +4668,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:7">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -4738,7 +4685,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:7">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -4752,7 +4699,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:7">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -4766,7 +4713,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:7">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -4780,7 +4727,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:7">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
@@ -4794,7 +4741,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:7">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -4808,7 +4755,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:7">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
@@ -4822,7 +4769,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:7">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
@@ -4836,7 +4783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:7">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
@@ -4850,7 +4797,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:7">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
@@ -4864,7 +4811,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:7">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
@@ -4878,7 +4825,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
@@ -4892,7 +4839,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4853,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:4">
       <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
@@ -4920,7 +4867,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:4">
       <c r="A244" s="1" t="s">
         <v>5</v>
       </c>
@@ -4934,7 +4881,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:4">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
@@ -4948,7 +4895,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:4">
       <c r="A246" s="1" t="s">
         <v>5</v>
       </c>
@@ -4962,7 +4909,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:4">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -4976,7 +4923,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:4">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -4990,7 +4937,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:4">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -5004,7 +4951,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:4">
       <c r="A250" s="1" t="s">
         <v>5</v>
       </c>
@@ -5018,7 +4965,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
         <v>5</v>
       </c>
@@ -5032,7 +4979,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
@@ -5046,7 +4993,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:4">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -5060,7 +5007,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -5074,7 +5021,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -5088,7 +5035,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -5102,7 +5049,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
@@ -5116,7 +5063,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
@@ -5130,7 +5077,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:4">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -5144,7 +5091,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -5158,7 +5105,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:4">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -5172,7 +5119,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:4">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -5186,7 +5133,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:4">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -5200,7 +5147,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:4">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -5214,7 +5161,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:4">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -5228,7 +5175,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:4">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -5242,7 +5189,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:4">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -5256,7 +5203,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:4">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -5270,7 +5217,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -5284,7 +5231,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:4">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -5298,7 +5245,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -5312,7 +5259,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -5326,7 +5273,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -5340,7 +5287,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:4">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -5354,7 +5301,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -5368,7 +5315,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -5382,7 +5329,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -5396,7 +5343,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5357,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -5424,7 +5371,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -5438,7 +5385,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
@@ -5452,7 +5399,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
@@ -5466,7 +5413,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -5480,7 +5427,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -5494,7 +5441,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -5508,7 +5455,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4">
       <c r="A286" s="1" t="s">
         <v>5</v>
       </c>
@@ -5522,7 +5469,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
@@ -5536,7 +5483,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
@@ -5550,7 +5497,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
@@ -5564,7 +5511,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
@@ -5578,7 +5525,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4">
       <c r="A291" s="1" t="s">
         <v>5</v>
       </c>
@@ -5592,7 +5539,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
@@ -5606,7 +5553,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
@@ -5620,7 +5567,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
@@ -5634,7 +5581,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
@@ -5648,7 +5595,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
@@ -5662,7 +5609,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>5</v>
       </c>
@@ -5676,7 +5623,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
@@ -5690,7 +5637,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>5</v>
       </c>
@@ -5704,7 +5651,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
@@ -5718,7 +5665,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4">
       <c r="A301" s="1" t="s">
         <v>5</v>
       </c>
@@ -5732,7 +5679,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
@@ -5746,7 +5693,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
@@ -5760,7 +5707,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4">
       <c r="A304" s="1" t="s">
         <v>5</v>
       </c>
@@ -5774,7 +5721,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:4">
       <c r="A305" s="1" t="s">
         <v>5</v>
       </c>
@@ -5788,7 +5735,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:4">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
@@ -5802,7 +5749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>5</v>
       </c>
@@ -5816,7 +5763,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:4">
       <c r="A308" s="1" t="s">
         <v>5</v>
       </c>
@@ -5830,7 +5777,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>5</v>
       </c>
@@ -5844,7 +5791,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>5</v>
       </c>
@@ -5858,7 +5805,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>5</v>
       </c>
@@ -5872,7 +5819,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
@@ -5886,7 +5833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -5900,7 +5847,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>5</v>
       </c>
@@ -5914,7 +5861,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>5</v>
       </c>
@@ -5928,7 +5875,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:4">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
@@ -5942,7 +5889,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:4">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
@@ -5956,7 +5903,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>5</v>
       </c>
@@ -5970,7 +5917,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -5984,7 +5931,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:4">
       <c r="A320" s="1" t="s">
         <v>5</v>
       </c>
@@ -5998,7 +5945,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>5</v>
       </c>
@@ -6012,7 +5959,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
         <v>5</v>
       </c>
@@ -6026,7 +5973,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -6040,7 +5987,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>5</v>
       </c>
@@ -6054,7 +6001,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -6068,7 +6015,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>5</v>
       </c>
@@ -6082,7 +6029,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>5</v>
       </c>
@@ -6096,7 +6043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:4">
       <c r="A328" s="1" t="s">
         <v>5</v>
       </c>
@@ -6110,7 +6057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
         <v>5</v>
       </c>
@@ -6124,7 +6071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
         <v>5</v>
       </c>

--- a/info/pic.xlsx
+++ b/info/pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F99AFD-6BF3-E044-8D36-723FDBD4E65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595445D7-749D-4BCE-9A92-C97A590F6397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="1080" windowWidth="19500" windowHeight="22680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1048,9 +1048,6 @@
     <t>participants</t>
   </si>
   <si>
-    <t>trial</t>
-  </si>
-  <si>
     <t>picture</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1065,6 +1062,10 @@
   </si>
   <si>
     <t>target4_g</t>
+  </si>
+  <si>
+    <t>block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1072,9 +1073,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,10 +1116,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1401,34 +1402,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H330"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="141" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.46484375" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>337</v>
+      <c r="B1" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1461,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1476,7 +1477,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1492,7 +1493,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1523,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1539,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1555,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1652,12 +1653,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2">
-        <v>3.6071428571428599</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1666,12 +1667,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2">
-        <v>3.78571428571429</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1680,12 +1681,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2">
-        <v>3.96428571428571</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -1694,7 +1695,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1708,12 +1709,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>4.1428571428571397</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>4</v>
@@ -1722,12 +1723,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -1736,12 +1737,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23" s="2">
-        <v>4.6785714285714297</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1750,12 +1751,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B24" s="2">
-        <v>4.8571428571428603</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -1764,7 +1765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1778,12 +1779,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B26" s="2">
-        <v>5.03571428571429</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>4</v>
@@ -1792,7 +1793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>5</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1876,7 +1877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1932,7 +1933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2185,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2325,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2381,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -2478,7 +2479,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2591,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -2646,7 +2647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>5</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>5</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>5</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>5</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>5</v>
       </c>
@@ -2912,7 +2913,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
@@ -2926,7 +2927,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>5</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>5</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
@@ -3024,7 +3025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>5</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>5</v>
       </c>
@@ -3052,7 +3053,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>5</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>5</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3137,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>5</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>5</v>
       </c>
@@ -3164,7 +3165,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>5</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>5</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>5</v>
       </c>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>5</v>
       </c>
@@ -3222,7 +3223,7 @@
       </c>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>5</v>
       </c>
@@ -3237,7 +3238,7 @@
       </c>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
@@ -3252,7 +3253,7 @@
       </c>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>5</v>
       </c>
@@ -3267,7 +3268,7 @@
       </c>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>5</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>5</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>5</v>
       </c>
@@ -3323,7 +3324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>5</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>5</v>
       </c>
@@ -3351,7 +3352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>5</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>5</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>5</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>5</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>5</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>5</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>5</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>5</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>5</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>5</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>5</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>5</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>5</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>5</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>5</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>5</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>5</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>5</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>5</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>5</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>5</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>5</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>5</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>5</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>5</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>5</v>
       </c>
@@ -3827,7 +3828,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>5</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>5</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>5</v>
       </c>
@@ -3869,7 +3870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>5</v>
       </c>
@@ -3883,7 +3884,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>5</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>5</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>5</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>5</v>
       </c>
@@ -3939,7 +3940,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>5</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>5</v>
       </c>
@@ -3981,7 +3982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>5</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>5</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>5</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>5</v>
       </c>
@@ -4055,7 +4056,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>5</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>5</v>
       </c>
@@ -4091,7 +4092,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>5</v>
       </c>
@@ -4109,7 +4110,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>5</v>
       </c>
@@ -4127,7 +4128,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>5</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>5</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>5</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>5</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>5</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>5</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>5</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>5</v>
       </c>
@@ -4267,7 +4268,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>5</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>5</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>5</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>5</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>5</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>5</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>5</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>5</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>5</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>5</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>5</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>5</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>5</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>5</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>5</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>5</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>5</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>5</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>5</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>5</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>5</v>
       </c>
@@ -4603,7 +4604,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>5</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>5</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>46</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>236</v>
@@ -4634,7 +4635,7 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>46</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>237</v>
@@ -4651,7 +4652,7 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>5</v>
       </c>
@@ -4659,7 +4660,7 @@
         <v>46</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>238</v>
@@ -4668,7 +4669,7 @@
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +4677,7 @@
         <v>46</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>239</v>
@@ -4685,7 +4686,7 @@
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>5</v>
       </c>
@@ -4693,13 +4694,13 @@
         <v>47</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>5</v>
       </c>
@@ -4707,13 +4708,13 @@
         <v>47</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>5</v>
       </c>
@@ -4721,13 +4722,13 @@
         <v>47</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>5</v>
       </c>
@@ -4735,13 +4736,13 @@
         <v>47</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>5</v>
       </c>
@@ -4749,13 +4750,13 @@
         <v>48</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>5</v>
       </c>
@@ -4763,13 +4764,13 @@
         <v>48</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>5</v>
       </c>
@@ -4777,13 +4778,13 @@
         <v>48</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>5</v>
       </c>
@@ -4791,13 +4792,13 @@
         <v>48</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>5</v>
       </c>
@@ -4805,13 +4806,13 @@
         <v>49</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>5</v>
       </c>
@@ -4819,13 +4820,13 @@
         <v>49</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>5</v>
       </c>
@@ -4833,13 +4834,13 @@
         <v>49</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
@@ -4847,13 +4848,13 @@
         <v>49</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>5</v>
       </c>
@@ -4861,13 +4862,13 @@
         <v>50</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>5</v>
       </c>
@@ -4875,13 +4876,13 @@
         <v>50</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>5</v>
       </c>
@@ -4889,13 +4890,13 @@
         <v>50</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>5</v>
       </c>
@@ -4903,13 +4904,13 @@
         <v>50</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>5</v>
       </c>
@@ -4917,13 +4918,13 @@
         <v>51</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>5</v>
       </c>
@@ -4931,13 +4932,13 @@
         <v>51</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>5</v>
       </c>
@@ -4945,13 +4946,13 @@
         <v>51</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>5</v>
       </c>
@@ -4959,13 +4960,13 @@
         <v>51</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>5</v>
       </c>
@@ -4973,13 +4974,13 @@
         <v>52</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>5</v>
       </c>
@@ -4987,13 +4988,13 @@
         <v>52</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>5</v>
       </c>
@@ -5001,13 +5002,13 @@
         <v>52</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>5</v>
       </c>
@@ -5015,13 +5016,13 @@
         <v>52</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>5</v>
       </c>
@@ -5029,13 +5030,13 @@
         <v>53</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>5</v>
       </c>
@@ -5043,13 +5044,13 @@
         <v>53</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>5</v>
       </c>
@@ -5057,13 +5058,13 @@
         <v>53</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>5</v>
       </c>
@@ -5071,13 +5072,13 @@
         <v>53</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>5</v>
       </c>
@@ -5085,13 +5086,13 @@
         <v>54</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
@@ -5099,13 +5100,13 @@
         <v>54</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>5</v>
       </c>
@@ -5113,13 +5114,13 @@
         <v>54</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>5</v>
       </c>
@@ -5127,13 +5128,13 @@
         <v>54</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>5</v>
       </c>
@@ -5141,13 +5142,13 @@
         <v>55</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>5</v>
       </c>
@@ -5155,13 +5156,13 @@
         <v>55</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
@@ -5169,13 +5170,13 @@
         <v>55</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>5</v>
       </c>
@@ -5183,13 +5184,13 @@
         <v>55</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>5</v>
       </c>
@@ -5197,13 +5198,13 @@
         <v>56</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>5</v>
       </c>
@@ -5211,13 +5212,13 @@
         <v>56</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>5</v>
       </c>
@@ -5225,13 +5226,13 @@
         <v>56</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>5</v>
       </c>
@@ -5239,13 +5240,13 @@
         <v>56</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>5</v>
       </c>
@@ -5253,13 +5254,13 @@
         <v>57</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>5</v>
       </c>
@@ -5267,13 +5268,13 @@
         <v>57</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>5</v>
       </c>
@@ -5281,13 +5282,13 @@
         <v>57</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -5295,13 +5296,13 @@
         <v>57</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>5</v>
       </c>
@@ -5309,13 +5310,13 @@
         <v>58</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>5</v>
       </c>
@@ -5323,13 +5324,13 @@
         <v>58</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
@@ -5337,13 +5338,13 @@
         <v>58</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>5</v>
       </c>
@@ -5351,13 +5352,13 @@
         <v>58</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>5</v>
       </c>
@@ -5365,13 +5366,13 @@
         <v>59</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>5</v>
       </c>
@@ -5379,13 +5380,13 @@
         <v>59</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>5</v>
       </c>
@@ -5393,13 +5394,13 @@
         <v>59</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>5</v>
       </c>
@@ -5407,13 +5408,13 @@
         <v>59</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>5</v>
       </c>
@@ -5421,13 +5422,13 @@
         <v>60</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -5435,13 +5436,13 @@
         <v>60</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>5</v>
       </c>
@@ -5449,13 +5450,13 @@
         <v>60</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>5</v>
       </c>
@@ -5463,13 +5464,13 @@
         <v>60</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>5</v>
       </c>
@@ -5477,13 +5478,13 @@
         <v>61</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>5</v>
       </c>
@@ -5491,13 +5492,13 @@
         <v>61</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>5</v>
       </c>
@@ -5505,13 +5506,13 @@
         <v>61</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>5</v>
       </c>
@@ -5519,13 +5520,13 @@
         <v>61</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>5</v>
       </c>
@@ -5533,13 +5534,13 @@
         <v>62</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>5</v>
       </c>
@@ -5547,13 +5548,13 @@
         <v>62</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>5</v>
       </c>
@@ -5561,13 +5562,13 @@
         <v>62</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>5</v>
       </c>
@@ -5575,13 +5576,13 @@
         <v>62</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>5</v>
       </c>
@@ -5589,13 +5590,13 @@
         <v>63</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>5</v>
       </c>
@@ -5603,13 +5604,13 @@
         <v>63</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>5</v>
       </c>
@@ -5617,13 +5618,13 @@
         <v>63</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>5</v>
       </c>
@@ -5631,13 +5632,13 @@
         <v>63</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>5</v>
       </c>
@@ -5645,13 +5646,13 @@
         <v>64</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>5</v>
       </c>
@@ -5659,13 +5660,13 @@
         <v>64</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>5</v>
       </c>
@@ -5673,13 +5674,13 @@
         <v>64</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>5</v>
       </c>
@@ -5687,13 +5688,13 @@
         <v>64</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>5</v>
       </c>
@@ -5701,13 +5702,13 @@
         <v>65</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>5</v>
       </c>
@@ -5715,13 +5716,13 @@
         <v>65</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>5</v>
       </c>
@@ -5729,13 +5730,13 @@
         <v>65</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>5</v>
       </c>
@@ -5743,13 +5744,13 @@
         <v>65</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>5</v>
       </c>
@@ -5757,13 +5758,13 @@
         <v>66</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>5</v>
       </c>
@@ -5771,13 +5772,13 @@
         <v>66</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>5</v>
       </c>
@@ -5785,13 +5786,13 @@
         <v>66</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>5</v>
       </c>
@@ -5799,13 +5800,13 @@
         <v>66</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>5</v>
       </c>
@@ -5813,13 +5814,13 @@
         <v>67</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>5</v>
       </c>
@@ -5827,13 +5828,13 @@
         <v>67</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>5</v>
       </c>
@@ -5841,13 +5842,13 @@
         <v>67</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>5</v>
       </c>
@@ -5855,13 +5856,13 @@
         <v>67</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>5</v>
       </c>
@@ -5869,13 +5870,13 @@
         <v>68</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>5</v>
       </c>
@@ -5883,13 +5884,13 @@
         <v>68</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>5</v>
       </c>
@@ -5897,13 +5898,13 @@
         <v>68</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>5</v>
       </c>
@@ -5911,13 +5912,13 @@
         <v>68</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>5</v>
       </c>
@@ -5925,13 +5926,13 @@
         <v>69</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>5</v>
       </c>
@@ -5939,13 +5940,13 @@
         <v>69</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>5</v>
       </c>
@@ -5953,13 +5954,13 @@
         <v>69</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>5</v>
       </c>
@@ -5967,13 +5968,13 @@
         <v>69</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>5</v>
       </c>
@@ -5981,13 +5982,13 @@
         <v>70</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>5</v>
       </c>
@@ -5995,13 +5996,13 @@
         <v>70</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>5</v>
       </c>
@@ -6009,13 +6010,13 @@
         <v>70</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>5</v>
       </c>
@@ -6023,13 +6024,13 @@
         <v>70</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>5</v>
       </c>
@@ -6037,13 +6038,13 @@
         <v>71</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>5</v>
       </c>
@@ -6051,13 +6052,13 @@
         <v>71</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>5</v>
       </c>
@@ -6065,13 +6066,13 @@
         <v>71</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>5</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>71</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>14</v>
